--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Clarion/Jacques_Clarion.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Clarion/Jacques_Clarion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Clarion (dit Clarion de beauval, du nom d'une propriété qu'il ^possédait à Garches) est un médecin et un botaniste français, né le 12 octobre 1779 au village de Saint-Pons, près de Seyne (Alpes-de-Haute-Provence) et mort le 28 septembre 1844 à Garches.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la pharmacie comme apprenti auprès d’un pharmacien de Seyne et herborise les plantes des Alpes. Le 25 frimaire an III (15 décembre 1794), il devient pharmacien de troisième classe dans l’armée d’Italie. Il quitte l’armée en l’an VII (mars 1799) et vient s’installer à Paris après avoir herborisé en Istrie et dans le Tyrol. Il travaille à l’école de médecine et obtient mi-1803 un diplôme de docteur en médecine avec une thèse intitulée Observations sur l’analyse des végétaux, suivies d’un travail chimique sur les rhubarbes exotique et indigène. En 1805, il est pharmacien ordinaire auprès de l’Empereur et dirige la pharmacie du palais de Saint-Cloud. Il reprend cette fonction à partir de 1817 et officie sous les règnes de Louis XVIII et de Charles X.
 En 1819, il devient professeur-adjoint de l’école de pharmacie puis, en 1825, professeur de botanique. Il est devenu membre, en 1822, de l’Académie de médecine, fonction occupée jusqu’en 1830.Il était chevalier de la Légion d'honneur.
